--- a/Dataset2/results_dataset2.xlsx
+++ b/Dataset2/results_dataset2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Duikang_dataset\SymX - 副本\Dataset2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Duikang_dataset\SymX\Dataset2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08D627F-E450-4717-9195-C50F6865EF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C97F815-AD5B-4422-B527-1EEEAB8AE602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1321,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E475F2E6-86EA-4BF8-831F-8933F09322EC}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
